--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_249.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_249.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,646 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.08363903154805576</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1806020066889632</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(52.750498, 59.809365)]</t>
+          <t>[['D:min/A', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(44.310045, 50.196303)]</t>
+          <t>[('0:00:02.860000', '0:00:05.300000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>[('0:02:04.300000', '0:02:09.240000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E'], ['C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>jaah_85</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08684863523573201</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min'], ['C:min', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>[['Ab:7', 'Db', 'Db:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(37.76, 46.06), (35.08, 43.92), (41.14, 53.02)]</t>
+          <t>[['B:7', 'E:maj/B', 'E:min/B']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(26.96, 33.5), (72.68, 78.7), (25.88, 30.84)]</t>
+          <t>[('0:00:36.660000', '0:00:38.430000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:03.520000', '0:00:11.600000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:7/A', 'A#:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>isophonics_235</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_8</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1666666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
+          <t>[['Eb', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(36.14, 42.12), (0.6, 9.94)]</t>
+          <t>[['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(43.12, 46.12), (283.3, 287.58)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:59.292687', '0:01:14.118628')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:50.046698', '0:00:55.352457')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5079365079365079</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.256578947368421</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(62.42, 64.62)]</t>
+          <t>[['G', 'C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(7.1, 18.3)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:09.162102', '0:00:17.463236')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:44.300045', '0:00:55.503673')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2833333333333333</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07984496124031007</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>[['F:7', 'A#:min', 'A:dim7', 'A#:min'], ['F:7', 'A#:min', 'A#:min', 'C:hdim7/D#'], ['A#:min', 'A:dim7', 'A#:min', 'A:dim7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(282.12, 287.58)]</t>
+          <t>[['G:7', 'C:min', 'B:dim7/C', 'C:min'], ['G:7', 'C:min', 'C:min', 'D:hdim7/C'], ['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(229.26, 241.06)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:17.920000', '0:00:23.340000'), ('0:00:12.380000', '0:00:17.920000'), ('0:00:19.300000', '0:00:24.660000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:18', '0:01:28.380000'), ('0:00:23.860000', '0:00:31.840000'), ('0:00:00.460000', '0:00:07.620000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1194879089615932</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_31</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3789473684210526</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D']]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(51.85331, 57.05458)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(14.711383, 18.983854)]</t>
+          <t>[('0:00:13.336043', '0:00:26.115071'), ('0:00:17.581738', '0:00:30.271443')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+          <t>[('0:02:37.160000', '0:02:40.380000'), ('0:02:34.020000', '0:02:39.240000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1988636363636364</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:min/G', 'B:maj/F#', 'E:min/G']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.425</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min/4', 'A', 'D:min']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(87.26, 89.58)]</t>
+          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(31.785035, 36.15069)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:22.380000', '0:02:25.800000'), ('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:08.150589', '0:01:15.697074'), ('0:00:02.612267', '0:00:17.443474')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5608974358974359</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj', 'D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[['B', 'E', 'B', 'F#', 'B', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(74.9, 93.84)]</t>
+          <t>[('0:01:47.673000', '0:02:04.556000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:40.546893', '0:00:56.394512')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(37.936167, 42.951678)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(83.34, 87.64)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:22.290863', '0:01:30.185647')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4464285714285715</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96)]</t>
+          <t>[['D/b7', 'G/3', 'D', 'G', 'D/3']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[('0:00:07.205000', '0:00:21.095000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:00:23.703945', '0:00:29.172244')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09973045822102425</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D/5']]</t>
-        </is>
+          <t>isophonics_108</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_79</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9479166666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['E', 'D', 'A', 'E', 'A', 'D', 'A', 'E', 'D', 'A', 'E', 'A', 'D', 'A', 'E', 'D', 'A', 'E', 'A', 'D', 'A', 'E', 'D', 'A', 'E', 'A', 'D', 'A', 'E', 'D', 'A', 'E', 'A', 'D', 'A', 'E', 'D', 'A', 'E', 'A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(31.898979, 34.035215)]</t>
+          <t>[['B', 'A', 'E', 'B', 'E', 'A', 'E', 'B', 'A', 'E', 'B', 'E', 'A', 'E', 'B', 'A', 'E', 'B', 'E', 'A', 'E', 'B', 'A', 'E', 'B', 'E', 'A', 'E', 'B', 'A', 'E', 'B', 'E', 'A', 'E', 'B', 'A', 'E', 'B', 'E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.74, 21.5)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:15.586961', '0:02:23.772721')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:01.073119', '0:02:02.908221')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(64.3, 65.72), (62.48, 64.92)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(43.14, 60.24), (124.92, 128.84)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.500000', '0:00:23.020000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2355769230769231</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G/3', 'C:maj', 'G/3', 'C:maj', 'G/3', 'C:maj']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(8.34, 12.24)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(157.019, 164.66)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:16.060000', '0:01:39.240000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:17.200000', '0:01:42.900000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(74.38, 84.38), (72.82, 80.0)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(7.76, 14.32), (19.78, 23.12)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8), (0.3, 3.34)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (27.46, 36.02)]</t>
+          <t>[('0:00:09.700000', '0:01:02.320000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:10.940000', '0:01:05.780000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_92</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2015810276679842</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(2.58, 5.02)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.36, 2.44)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
